--- a/contact_correlations/phaseshift/phaseshift_metadata.xlsx
+++ b/contact_correlations/phaseshift/phaseshift_metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\unobtainium\E_Carmen_Santiago\Analysis Scripts\analysis\contact_correlations\phaseshift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\UNOBTAINIUM\E_Carmen_Santiago\Analysis Scripts\analysis\contact_correlations\phaseshift\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>filename</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>(time !=90) &amp; (time != 190) &amp; (time != 290) &amp; (time!=390) &amp; (time!=490)</t>
+  </si>
+  <si>
+    <t>2024-11-08_F_e</t>
+  </si>
+  <si>
+    <t>zbias</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1412,12 @@
       <c r="U6">
         <v>0.05</v>
       </c>
+      <c r="V6">
+        <v>16</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
       <c r="X6">
         <v>76416</v>
       </c>
@@ -1417,6 +1429,12 @@
       </c>
       <c r="AA6">
         <v>0.05</v>
+      </c>
+      <c r="AB6">
+        <v>16</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
       </c>
       <c r="AD6" t="s">
         <v>38</v>
@@ -1486,6 +1504,12 @@
       <c r="U7">
         <v>0.05</v>
       </c>
+      <c r="V7">
+        <v>16</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
       <c r="X7">
         <v>70667</v>
       </c>
@@ -1497,6 +1521,12 @@
       </c>
       <c r="AA7">
         <v>0.05</v>
+      </c>
+      <c r="AB7">
+        <v>16</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
       </c>
       <c r="AD7" t="s">
         <v>38</v>
@@ -1661,6 +1691,12 @@
       <c r="U9">
         <v>0.05</v>
       </c>
+      <c r="V9">
+        <v>16</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
       <c r="X9">
         <v>53138</v>
       </c>
@@ -1672,6 +1708,12 @@
       </c>
       <c r="AA9">
         <v>0.05</v>
+      </c>
+      <c r="AB9">
+        <v>16</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
       </c>
       <c r="AD9" t="s">
         <v>38</v>
@@ -2094,6 +2136,12 @@
       <c r="U14">
         <v>0.05</v>
       </c>
+      <c r="V14">
+        <v>16</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
       <c r="X14">
         <v>61265</v>
       </c>
@@ -2105,6 +2153,12 @@
       </c>
       <c r="AA14">
         <v>0.05</v>
+      </c>
+      <c r="AB14">
+        <v>16</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
       </c>
       <c r="AD14" t="s">
         <v>38</v>
@@ -2203,6 +2257,65 @@
       </c>
       <c r="AH15" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="N16">
+        <v>202.14</v>
+      </c>
+      <c r="R16">
+        <v>24739</v>
+      </c>
+      <c r="S16">
+        <v>180</v>
+      </c>
+      <c r="T16">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="U16">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="V16">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="W16">
+        <v>0.04</v>
+      </c>
+      <c r="X16">
+        <v>18531</v>
+      </c>
+      <c r="Y16">
+        <v>190</v>
+      </c>
+      <c r="Z16">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AA16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="AB16">
+        <v>14.6</v>
+      </c>
+      <c r="AC16">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
